--- a/clase11/estudiantes.xlsx
+++ b/clase11/estudiantes.xlsx
@@ -4,40 +4,26 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alumnos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,36 +43,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -159,202 +125,337 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="208" zoomScaleNormal="208" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>edad</t>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Carnet</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Carrera</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Marco</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Pedro</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jooose</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31</t>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Otro nombre</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Admon</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>